--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ltf</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H2">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I2">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J2">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.4293657847349999</v>
+        <v>5.287462417553334</v>
       </c>
       <c r="R2">
-        <v>3.864292062615</v>
+        <v>47.58716175798</v>
       </c>
       <c r="S2">
-        <v>5.507804872392963E-05</v>
+        <v>0.0003041831565429516</v>
       </c>
       <c r="T2">
-        <v>5.507804872392964E-05</v>
+        <v>0.0003041831565429516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H3">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I3">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J3">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>35.11308281003333</v>
+        <v>82.45022240052224</v>
       </c>
       <c r="R3">
-        <v>316.0177452903</v>
+        <v>742.0520016047001</v>
       </c>
       <c r="S3">
-        <v>0.004504224962992829</v>
+        <v>0.004743290245278846</v>
       </c>
       <c r="T3">
-        <v>0.004504224962992829</v>
+        <v>0.004743290245278846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H4">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I4">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J4">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>32.60158927382</v>
+        <v>97.55339861433946</v>
       </c>
       <c r="R4">
-        <v>293.41430346438</v>
+        <v>877.9805875290551</v>
       </c>
       <c r="S4">
-        <v>0.004182056387211302</v>
+        <v>0.005612162958074257</v>
       </c>
       <c r="T4">
-        <v>0.004182056387211302</v>
+        <v>0.005612162958074257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H5">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I5">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J5">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>5.646821409946666</v>
+        <v>9.309553376929445</v>
       </c>
       <c r="R5">
-        <v>50.82139268952</v>
+        <v>83.785980392365</v>
       </c>
       <c r="S5">
-        <v>0.0007243611759710365</v>
+        <v>0.0005355705834992687</v>
       </c>
       <c r="T5">
-        <v>0.0007243611759710365</v>
+        <v>0.0005355705834992687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H6">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I6">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J6">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>13.15467745194167</v>
+        <v>31.55654580556167</v>
       </c>
       <c r="R6">
-        <v>118.392097067475</v>
+        <v>284.0089122500551</v>
       </c>
       <c r="S6">
-        <v>0.001687451565552193</v>
+        <v>0.0018154208871275</v>
       </c>
       <c r="T6">
-        <v>0.001687451565552193</v>
+        <v>0.0018154208871275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H7">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I7">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J7">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>30.85922806424</v>
+        <v>139.5480353295428</v>
       </c>
       <c r="R7">
-        <v>277.73305257816</v>
+        <v>1255.932317965885</v>
       </c>
       <c r="S7">
-        <v>0.003958550325462201</v>
+        <v>0.00802807822046888</v>
       </c>
       <c r="T7">
-        <v>0.003958550325462201</v>
+        <v>0.008028078220468882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H8">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I8">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J8">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>27.983396936622</v>
+        <v>244.7955902876294</v>
       </c>
       <c r="R8">
-        <v>251.850572429598</v>
+        <v>2203.160312588664</v>
       </c>
       <c r="S8">
-        <v>0.003589645367032648</v>
+        <v>0.01408287936275154</v>
       </c>
       <c r="T8">
-        <v>0.003589645367032648</v>
+        <v>0.01408287936275154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H9">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I9">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J9">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
-        <v>2288.452803821063</v>
+        <v>3817.228240691996</v>
       </c>
       <c r="R9">
-        <v>20596.07523438957</v>
+        <v>34355.05416622796</v>
       </c>
       <c r="S9">
-        <v>0.2935574270526996</v>
+        <v>0.2196018512857594</v>
       </c>
       <c r="T9">
-        <v>0.2935574270526996</v>
+        <v>0.2196018512857594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H10">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I10">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J10">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>2124.769243029198</v>
+        <v>4516.465539136998</v>
       </c>
       <c r="R10">
-        <v>19122.92318726278</v>
+        <v>40648.18985223298</v>
       </c>
       <c r="S10">
-        <v>0.2725604788627901</v>
+        <v>0.2598283705149944</v>
       </c>
       <c r="T10">
-        <v>0.2725604788627901</v>
+        <v>0.2598283705149945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H11">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I11">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J11">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>368.0247717975005</v>
+        <v>431.0078132478092</v>
       </c>
       <c r="R11">
-        <v>3312.222946177505</v>
+        <v>3879.070319230282</v>
       </c>
       <c r="S11">
-        <v>0.04720936561162249</v>
+        <v>0.02479550808591088</v>
       </c>
       <c r="T11">
-        <v>0.0472093656116225</v>
+        <v>0.02479550808591088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H12">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I12">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J12">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>857.3402301678746</v>
+        <v>1460.984995801753</v>
       </c>
       <c r="R12">
-        <v>7716.062071510871</v>
+        <v>13148.86496221578</v>
       </c>
       <c r="S12">
-        <v>0.1099776196636519</v>
+        <v>0.08404920784108541</v>
       </c>
       <c r="T12">
-        <v>0.1099776196636519</v>
+        <v>0.08404920784108542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.68726866666667</v>
+      </c>
+      <c r="H13">
+        <v>80.061806</v>
+      </c>
+      <c r="I13">
+        <v>0.9740367041745472</v>
+      </c>
+      <c r="J13">
+        <v>0.9740367041745475</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>242.0894676666667</v>
+      </c>
+      <c r="N13">
+        <v>726.268403</v>
+      </c>
+      <c r="O13">
+        <v>0.3815861204111676</v>
+      </c>
+      <c r="P13">
+        <v>0.3815861204111676</v>
+      </c>
+      <c r="Q13">
+        <v>6460.706664990647</v>
+      </c>
+      <c r="R13">
+        <v>58146.35998491583</v>
+      </c>
+      <c r="S13">
+        <v>0.3716788870840457</v>
+      </c>
+      <c r="T13">
+        <v>0.3716788870840457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.134927</v>
+      </c>
+      <c r="H14">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J14">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.172748</v>
+      </c>
+      <c r="N14">
+        <v>27.518244</v>
+      </c>
+      <c r="O14">
+        <v>0.01445826353606064</v>
+      </c>
+      <c r="P14">
+        <v>0.01445826353606064</v>
+      </c>
+      <c r="Q14">
+        <v>1.237651369396</v>
+      </c>
+      <c r="R14">
+        <v>11.138862324564</v>
+      </c>
+      <c r="S14">
+        <v>7.120101676614602E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.120101676614602E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.134927</v>
+      </c>
+      <c r="H15">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J15">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N15">
+        <v>429.10666</v>
+      </c>
+      <c r="O15">
+        <v>0.2254554169720557</v>
+      </c>
+      <c r="P15">
+        <v>0.2254554169720557</v>
+      </c>
+      <c r="Q15">
+        <v>19.29935810460667</v>
+      </c>
+      <c r="R15">
+        <v>173.69422294146</v>
+      </c>
+      <c r="S15">
+        <v>0.001110275441017418</v>
+      </c>
+      <c r="T15">
+        <v>0.001110275441017418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.134927</v>
+      </c>
+      <c r="H16">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J16">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2367096666667</v>
+      </c>
+      <c r="N16">
+        <v>507.7101290000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2667541884216647</v>
+      </c>
+      <c r="P16">
+        <v>0.2667541884216647</v>
+      </c>
+      <c r="Q16">
+        <v>22.83460152519433</v>
+      </c>
+      <c r="R16">
+        <v>205.511413726749</v>
+      </c>
+      <c r="S16">
+        <v>0.001313654948595963</v>
+      </c>
+      <c r="T16">
+        <v>0.001313654948595963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.99918866666667</v>
-      </c>
-      <c r="H13">
-        <v>47.99756600000001</v>
-      </c>
-      <c r="I13">
-        <v>0.9848882775340866</v>
-      </c>
-      <c r="J13">
-        <v>0.9848882775340865</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>125.707184</v>
-      </c>
-      <c r="N13">
-        <v>377.1215520000001</v>
-      </c>
-      <c r="O13">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="P13">
-        <v>0.261952291301752</v>
-      </c>
-      <c r="Q13">
-        <v>2011.212953571382</v>
-      </c>
-      <c r="R13">
-        <v>18100.91658214244</v>
-      </c>
-      <c r="S13">
-        <v>0.2579937409762899</v>
-      </c>
-      <c r="T13">
-        <v>0.2579937409762898</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.134927</v>
+      </c>
+      <c r="H17">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J17">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.15031566666667</v>
+      </c>
+      <c r="N17">
+        <v>48.450947</v>
+      </c>
+      <c r="O17">
+        <v>0.02545644119943506</v>
+      </c>
+      <c r="P17">
+        <v>0.02545644119943505</v>
+      </c>
+      <c r="Q17">
+        <v>2.179113641956334</v>
+      </c>
+      <c r="R17">
+        <v>19.612022777607</v>
+      </c>
+      <c r="S17">
+        <v>0.0001253625300249046</v>
+      </c>
+      <c r="T17">
+        <v>0.0001253625300249046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.134927</v>
+      </c>
+      <c r="H18">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J18">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.744643</v>
+      </c>
+      <c r="N18">
+        <v>164.233929</v>
+      </c>
+      <c r="O18">
+        <v>0.08628956945961638</v>
+      </c>
+      <c r="P18">
+        <v>0.08628956945961638</v>
+      </c>
+      <c r="Q18">
+        <v>7.386530446061</v>
+      </c>
+      <c r="R18">
+        <v>66.478774014549</v>
+      </c>
+      <c r="S18">
+        <v>0.0004249407314034658</v>
+      </c>
+      <c r="T18">
+        <v>0.0004249407314034658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.134927</v>
+      </c>
+      <c r="H19">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J19">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>242.0894676666667</v>
+      </c>
+      <c r="N19">
+        <v>726.268403</v>
+      </c>
+      <c r="O19">
+        <v>0.3815861204111676</v>
+      </c>
+      <c r="P19">
+        <v>0.3815861204111676</v>
+      </c>
+      <c r="Q19">
+        <v>32.66440560386033</v>
+      </c>
+      <c r="R19">
+        <v>293.979650434743</v>
+      </c>
+      <c r="S19">
+        <v>0.001879155106653066</v>
+      </c>
+      <c r="T19">
+        <v>0.001879155106653066</v>
       </c>
     </row>
   </sheetData>
